--- a/Documents de conception/BomberMan.xlsx
+++ b/Documents de conception/BomberMan.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat_000\Documents\GitHub\BomberProject\Documents de conception\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="599" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="599" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="StatChampion" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="StatBombe" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="ListeChampion" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="ListeTypeArènes" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="StatChampion" sheetId="1" r:id="rId1"/>
+    <sheet name="StatBombe" sheetId="2" r:id="rId2"/>
+    <sheet name="ListeChampion" sheetId="3" r:id="rId3"/>
+    <sheet name="ListeTypeArènes" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -227,9 +232,6 @@
     <t>+ 3NbBombesMax</t>
   </si>
   <si>
-    <t>Boooooooooombeeeeeee : Bombe avec un grand délai d'explosion (X secondes)</t>
-  </si>
-  <si>
     <t>Jump In Time : le joueur avance dans le temps, ce qui declenche toute les bombes dans un certain rayon.</t>
   </si>
   <si>
@@ -300,46 +302,30 @@
   </si>
   <si>
     <t>Les blocs destructibles ont 3 points de vie</t>
+  </si>
+  <si>
+    <t>Boooooooooombbbb : Bombe avec un grand délai d'explosion (X secondes)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="DD\-MMM" numFmtId="165"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -351,7 +337,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -359,84 +345,322 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <pane activePane="topLeft" topLeftCell="A1" xSplit="0" ySplit="-1"/>
-      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
-      <selection activeCell="A1" activeCellId="0" pane="bottomLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.9372549019608"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.5254901960784"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="10.7803921568627"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.756862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.7803921568627"/>
+    <col min="1" max="1" width="15.77734375"/>
+    <col min="2" max="2" width="22.88671875" style="1"/>
+    <col min="3" max="3" width="23.5546875" style="1"/>
+    <col min="4" max="7" width="10.77734375"/>
+    <col min="8" max="8" width="18.77734375" style="1"/>
+    <col min="9" max="1025" width="10.77734375"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -450,11 +674,11 @@
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="2">
+    <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -464,11 +688,11 @@
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="3">
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -478,11 +702,11 @@
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="4">
+    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -492,11 +716,11 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="5">
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -506,11 +730,11 @@
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="6">
+    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -518,39 +742,28 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <pane activePane="topLeft" topLeftCell="A1" xSplit="0" ySplit="-1"/>
-      <selection activeCell="B8" activeCellId="0" pane="topLeft" sqref="B8"/>
-      <selection activeCell="A1" activeCellId="0" pane="bottomLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.4392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.7450980392157"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.0470588235294"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="10.7803921568627"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.756862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.7803921568627"/>
+    <col min="1" max="1" width="15.44140625" style="1"/>
+    <col min="2" max="2" width="31.77734375" style="1"/>
+    <col min="3" max="3" width="19" style="1"/>
+    <col min="4" max="7" width="10.77734375"/>
+    <col min="8" max="8" width="18.77734375" style="1"/>
+    <col min="9" max="1025" width="10.77734375"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -564,11 +777,11 @@
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="2">
+    <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -578,11 +791,11 @@
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="3">
+    <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -592,11 +805,11 @@
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="4">
+    <row r="4" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -606,7 +819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="82.05" outlineLevel="0" r="5">
+    <row r="5" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -621,45 +834,36 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <pane activePane="topLeft" topLeftCell="A1" xSplit="0" ySplit="-1"/>
-      <selection activeCell="J6" activeCellId="0" pane="topLeft" sqref="J6"/>
-      <selection activeCell="A1" activeCellId="0" pane="bottomLeft" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.1921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.0588235294118"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.8313725490196"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.2509803921569"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.1019607843137"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.1803921568627"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.2509803921569"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.2470588235294"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.8745098039216"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.5647058823529"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="7.64313725490196"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7803921568627"/>
+    <col min="1" max="1" width="19.21875" style="1"/>
+    <col min="2" max="2" width="20.109375" style="1"/>
+    <col min="3" max="3" width="25.77734375" style="1"/>
+    <col min="4" max="4" width="11.21875" style="1"/>
+    <col min="5" max="5" width="10.109375" style="1"/>
+    <col min="6" max="6" width="18.21875" style="1"/>
+    <col min="7" max="7" width="11.21875" style="1"/>
+    <col min="8" max="8" width="10.21875" style="1"/>
+    <col min="9" max="9" width="15.88671875" style="1"/>
+    <col min="10" max="10" width="13.5546875" style="1"/>
+    <col min="11" max="11" width="7.6640625" style="1"/>
+    <col min="12" max="1025" width="10.77734375"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="33.75" outlineLevel="0" r="1" s="5">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -694,7 +898,7 @@
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="108.95" outlineLevel="0" r="2">
+    <row r="2" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -723,7 +927,7 @@
         <v>44</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="3">
+    <row r="3" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -752,7 +956,7 @@
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="149.25" outlineLevel="0" r="4">
+    <row r="4" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
@@ -781,7 +985,7 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="95.5" outlineLevel="0" r="5">
+    <row r="5" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
@@ -810,7 +1014,7 @@
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="122.35" outlineLevel="0" r="6">
+    <row r="6" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>62</v>
       </c>
@@ -839,7 +1043,7 @@
         <v>66</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="82.05" outlineLevel="0" r="7">
+    <row r="7" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>67</v>
       </c>
@@ -847,7 +1051,7 @@
         <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>41</v>
@@ -856,178 +1060,162 @@
         <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>71</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <pane activePane="topLeft" topLeftCell="A1" xSplit="0" ySplit="-1"/>
-      <selection activeCell="F7" activeCellId="0" pane="topLeft" sqref="F7"/>
-      <selection activeCell="A1" activeCellId="0" pane="bottomLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="11.5411764705882"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.756862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.6392156862745"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.12941176470588"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="23.0901960784314"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.7803921568627"/>
+    <col min="1" max="2" width="11.5546875" style="1"/>
+    <col min="3" max="3" width="15.77734375" style="1"/>
+    <col min="4" max="4" width="18.6640625" style="1"/>
+    <col min="5" max="5" width="8.109375" style="1"/>
+    <col min="6" max="6" width="23.109375" style="1"/>
+    <col min="7" max="1025" width="10.77734375"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="3">
-      <c r="A3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="4">
-      <c r="A4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="5">
-      <c r="A5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.95" outlineLevel="0" r="6">
-      <c r="A6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>93</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>